--- a/tradept/Excel/Localization/english/S设施列表_Buildings_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/S设施列表_Buildings_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3E09BF-951E-42E5-9566-8329E23F85E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E34DC57-8D2A-4BE9-BEEE-D9172B5C8150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3840,7 +3840,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4138,13 +4138,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A439" workbookViewId="0">
       <selection activeCell="D331" sqref="D331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11529,7 +11529,7 @@
         <v>749</v>
       </c>
       <c r="B435" s="3" t="str">
-        <f t="shared" ref="B435:B466" si="3">CONCATENATE(,A435,"军营")</f>
+        <f t="shared" ref="B435:B440" si="3">CONCATENATE(,A435,"军营")</f>
         <v>火魔巫师军营</v>
       </c>
       <c r="C435" t="s">
